--- a/data/trans_camb/P12A1_2_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P12A1_2_R-Edad-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>47,78</t>
+          <t>3,29</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>26,37</t>
+          <t>-10,23</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>24,13</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>24,13</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>38,06</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>25,52</t>
+          <t>-2,72</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1,44</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-4,84</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-0,81</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>13,54; 82,86</t>
+          <t>-11,08; 22,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-21,04; 69,19</t>
+          <t>-28,56; -3,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 60,25</t>
+          <t>-13,6; 18,97</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 58,69</t>
+          <t>-13,2; 10,46</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>17,67; 63,91</t>
+          <t>-13,28; 12,03</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,68; 52,78</t>
+          <t>-16,08; 6,73</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-8,2; 11,73</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-13,16; 2,09</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-9,53; 9,32</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>91,51%</t>
+          <t>32,21%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>50,51%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>31,8%</t>
+          <t>9,05%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>31,8%</t>
+          <t>-3,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>61,46%</t>
+          <t>6,6%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>41,2%</t>
+          <t>-31,13%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>15,29%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-51,41%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-8,65%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>14,32; 460,48</t>
+          <t>-80,19; inf</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-30,13; 451,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 150,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 141,47</t>
+          <t>-84,4; 307,72</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>21,17; 176,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 137,26</t>
+          <t>-100,0; 300,13</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-64,47; 271,0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-90,85; 82,75</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-75,23; 208,37</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-19,05</t>
+          <t>-1,25</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-17,65</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-41,72</t>
+          <t>-2,11</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>8,9</t>
+          <t>-3,59</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-19,16</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-9,75</t>
+          <t>1,89</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-2,29</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-0,19</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-0,28</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-70,75; 23,73</t>
+          <t>-10,91; 8,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-67,7; 28,9</t>
+          <t>-10,09; 10,92</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-82,79; 0,0</t>
+          <t>-12,03; 6,78</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-48,34; 68,22</t>
+          <t>-12,17; 0,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-60,9; 19,77</t>
+          <t>-7,66; 5,82</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-48,61; 26,36</t>
+          <t>-5,66; 10,18</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-7,52; 2,88</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-6,12; 5,33</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-6,19; 5,68</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-39,09%</t>
+          <t>-21,84%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-36,22%</t>
+          <t>-1,74%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
+          <t>-36,81%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>21,32%</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-41,54%</t>
+          <t>-14,51%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-21,14%</t>
+          <t>52,7%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-49,05%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-4,14%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-5,95%</t>
         </is>
       </c>
     </row>
@@ -871,12 +1007,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-92,11; 110,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-86,63; 146,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -891,12 +1027,27 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-92,44; 69,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-77,85; 100,07</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-83,33; 334,52</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,26</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,46</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>10,63</t>
+          <t>1,99</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>12,55</t>
+          <t>-0,93</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>2,43</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>3,4</t>
+          <t>-0,28</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-0,65</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0,3</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0,54</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-53,0; 46,46</t>
+          <t>-6,35; 5,8</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-61,77; 61,94</t>
+          <t>-4,93; 9,21</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-25,79; 49,56</t>
+          <t>-4,74; 9,66</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-23,85; 46,71</t>
+          <t>-6,65; 5,34</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-31,14; 36,56</t>
+          <t>-6,03; 6,77</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-36,12; 37,7</t>
+          <t>-6,46; 5,91</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-5,14; 3,8</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-4,53; 5,22</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-4,19; 5,19</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-1,63%</t>
+          <t>-3,77%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>8,98%</t>
+          <t>26,84%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>23,72%</t>
+          <t>63,84%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>28,0%</t>
+          <t>-14,62%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>7,41%</t>
+          <t>1,2%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>10,36%</t>
+          <t>-4,33%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-12,62%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>5,83%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>10,45%</t>
         </is>
       </c>
     </row>
@@ -1037,22 +1233,37 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-46,48; 193,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-40,78; 169,33</t>
+          <t>-78,38; 194,98</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-63,76; 175,05</t>
+          <t>-67,11; 248,35</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-73,91; 162,94</t>
+          <t>-68,66; 204,33</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-73,37; 132,85</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-63,44; 193,41</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-60,51; 181,8</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-6,64</t>
+          <t>1,17</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-7,32</t>
+          <t>2,02</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-2,53</t>
+          <t>4,94</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-7,01</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-4,34</t>
+          <t>1,68</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-7,14</t>
+          <t>7,84</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0,46</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>1,85</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>6,46</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-35,19; 27,81</t>
+          <t>-8,47; 11,4</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-39,62; 24,43</t>
+          <t>-7,69; 13,35</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-26,72; 21,9</t>
+          <t>-6,07; 15,64</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-30,76; 19,86</t>
+          <t>-8,43; 8,04</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-22,92; 14,05</t>
+          <t>-6,29; 10,28</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-24,88; 14,89</t>
+          <t>-0,73; 17,65</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-5,85; 6,58</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-4,24; 8,52</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>0,02; 13,24</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-9,25%</t>
+          <t>11,3%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-10,18%</t>
+          <t>19,48%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-3,6%</t>
+          <t>47,6%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-9,99%</t>
+          <t>-1,81%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-6,12%</t>
+          <t>17,77%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-10,07%</t>
+          <t>83,01%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>4,62%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>18,79%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>65,47%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-42,17; 48,42</t>
+          <t>-57,77; 235,61</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-44,61; 43,11</t>
+          <t>-52,58; 273,96</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-34,39; 38,42</t>
+          <t>-44,14; 277,18</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-39,43; 33,12</t>
+          <t>-64,65; 147,84</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-28,7; 22,88</t>
+          <t>-52,29; 178,95</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-32,53; 24,0</t>
+          <t>-8,45; 326,9</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-44,56; 104,34</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-32,42; 140,81</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-3,01; 198,4</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-3,59</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-11,25</t>
+          <t>2,08</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>1,67</t>
+          <t>-5,22</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>8,23</t>
+          <t>2,37</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-2,23</t>
+          <t>2,27</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-2,98</t>
+          <t>6,13</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>1,28</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>2,11</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-0,39</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-30,96; 22,7</t>
+          <t>-10,82; 11,68</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-36,29; 14,58</t>
+          <t>-9,79; 13,79</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-26,16; 26,96</t>
+          <t>-14,85; 4,82</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-23,18; 42,96</t>
+          <t>-2,27; 11,22</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-24,6; 16,84</t>
+          <t>-2,42; 10,06</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-23,1; 18,32</t>
+          <t>0,16; 16,28</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-5,52; 8,44</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-5,1; 9,49</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-7,24; 5,93</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-6,44%</t>
+          <t>2,69%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-20,18%</t>
+          <t>16,54%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>5,95%</t>
+          <t>-41,59%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>29,32%</t>
+          <t>154,8%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-5,02%</t>
+          <t>148,23%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-6,73%</t>
+          <t>400,79%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>16,31%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>26,77%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-4,9%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-45,22; 55,2</t>
+          <t>-56,97; 182,22</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-54,1; 34,8</t>
+          <t>-56,2; 198,85</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-64,21; 241,6</t>
+          <t>-83,9; 98,18</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-59,98; 398,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-45,54; 50,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-42,47; 55,81</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-50,87; 206,49</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-47,55; 210,55</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-67,21; 132,04</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-5,14</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-11,13</t>
+          <t>-2,52</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-4,42</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>7,37</t>
+          <t>-0,67</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-5,0</t>
+          <t>-0,86</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>-0,39</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>0,98</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>-1,62</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>-0,23</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-33,39; 25,63</t>
+          <t>-5,09; 12,66</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-39,26; 18,23</t>
+          <t>-12,42; 0,0</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-23,55; 12,79</t>
+          <t>-7,76; 4,78</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-17,38; 35,46</t>
+          <t>-9,11; 5,75</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-21,3; 11,29</t>
+          <t>-9,87; 5,81</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-16,77; 18,37</t>
+          <t>-8,92; 7,89</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-4,84; 7,19</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-7,36; 2,64</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>-5,43; 5,52</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-25,11%</t>
+          <t>119,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-54,41%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-35,5%</t>
+          <t>-8,48%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>59,15%</t>
+          <t>-15,53%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-32,43%</t>
+          <t>-19,98%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>2,21%</t>
+          <t>-8,99%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>27,65%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>-45,93%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>-6,6%</t>
         </is>
       </c>
     </row>
@@ -1510,17 +1886,32 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-74,63; 841,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-83,57; 146,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-75,16; 251,73</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-0,32</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-4,97</t>
+          <t>-1,05</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-3,12</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>8,66</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-1,55</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>1,51</t>
+          <t>1,88</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>0,18</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>-0,18</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>0,98</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-17,95; 17,43</t>
+          <t>-3,69; 5,2</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-21,93; 16,03</t>
+          <t>-5,21; 2,55</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-21,65; 13,06</t>
+          <t>-4,57; 4,19</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-8,99; 25,07</t>
+          <t>-3,82; 2,51</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-13,17; 10,24</t>
+          <t>-2,87; 3,87</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-10,43; 13,92</t>
+          <t>-1,25; 5,98</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-2,31; 3,01</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-2,84; 2,3</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>-1,71; 3,62</t>
         </is>
       </c>
     </row>
@@ -1613,32 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-0,7%</t>
+          <t>12,59%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-10,72%</t>
+          <t>-13,86%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-7,3%</t>
+          <t>-0,65%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>20,27%</t>
+          <t>-9,23%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-3,49%</t>
+          <t>9,37%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>3,4%</t>
+          <t>30,98%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>2,68%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>-2,71%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>14,44%</t>
         </is>
       </c>
     </row>
@@ -1651,43 +2087,65 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-31,66; 47,55</t>
+          <t>-36,93; 91,3</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-41,94; 40,33</t>
+          <t>-51,95; 48,47</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-42,01; 34,87</t>
+          <t>-47,98; 78,02</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-17,46; 71,36</t>
+          <t>-48,94; 58,61</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-26,91; 24,93</t>
+          <t>-37,14; 90,0</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-21,13; 35,08</t>
+          <t>-16,59; 138,56</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-29,4; 54,39</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-35,24; 41,74</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-21,57; 63,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
